--- a/src/main/resources/static/studentId.xlsx
+++ b/src/main/resources/static/studentId.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchangmin/Desktop/rental-inhaee/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C715DF-C3B9-0B41-88AE-1BCEE30B561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E5772F-1CE7-3F46-A40B-0D5B85EDDC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10740" yWindow="2240" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>안창민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>강민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일이일이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F595DD0-4CC8-434B-86B2-9775FD789850}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -530,6 +534,14 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>12121212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/studentId.xlsx
+++ b/src/main/resources/static/studentId.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchangmin/Desktop/rental-inhaee/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E5772F-1CE7-3F46-A40B-0D5B85EDDC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D592739-6B85-1F4E-A855-1A145012DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="2240" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
+    <workbookView xWindow="28300" yWindow="2640" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/src/main/resources/static/studentId.xlsx
+++ b/src/main/resources/static/studentId.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchangmin/Desktop/rental-inhaee/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D592739-6B85-1F4E-A855-1A145012DADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6C17C-8E20-8646-B620-003F7A364707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28300" yWindow="2640" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
+    <workbookView xWindow="28300" yWindow="2620" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>안창민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>일이일이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F595DD0-4CC8-434B-86B2-9775FD789850}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -542,6 +546,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/studentId.xlsx
+++ b/src/main/resources/static/studentId.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchangmin/Desktop/rental-inhaee/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6C17C-8E20-8646-B620-003F7A364707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C9890A-1904-7544-B050-4957274C9C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28300" yWindow="2620" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>안창민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F595DD0-4CC8-434B-86B2-9775FD789850}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -554,6 +558,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>11111111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/studentId.xlsx
+++ b/src/main/resources/static/studentId.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchangmin/Desktop/rental-inhaee/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C9890A-1904-7544-B050-4957274C9C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D0920F-050F-754B-94C8-47F1891278B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28300" yWindow="2620" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>안창민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,15 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일이일이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일</t>
+    <t>일일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F595DD0-4CC8-434B-86B2-9775FD789850}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -536,34 +528,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>1234</v>
-      </c>
-      <c r="B10">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>12121212</v>
-      </c>
-      <c r="B11" t="s">
+        <v>12111111</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1234</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>11111111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/studentId.xlsx
+++ b/src/main/resources/static/studentId.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchangmin/Desktop/rental-inhaee/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D0920F-050F-754B-94C8-47F1891278B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55D6D0-EC30-B841-A515-E78530B2F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28300" yWindow="2620" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>안창민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>일일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F595DD0-4CC8-434B-86B2-9775FD789850}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -534,6 +538,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>12000000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/studentId.xlsx
+++ b/src/main/resources/static/studentId.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchangmin/Desktop/rental-inhaee/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF55D6D0-EC30-B841-A515-E78530B2F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E12AD-99BD-6341-990B-593CD17E7444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28300" yWindow="2620" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>안창민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,14 +82,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>일이삼사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chil</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>cbcb</t>
+  </si>
+  <si>
+    <t>123sds</t>
+  </si>
+  <si>
+    <t>dcdcdc</t>
+  </si>
+  <si>
+    <t>dtdtdt</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>546gyty</t>
+  </si>
+  <si>
+    <t>rrrr</t>
+  </si>
+  <si>
+    <t>43234</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>232323</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -450,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F595DD0-4CC8-434B-86B2-9775FD789850}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -540,10 +597,194 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>12000000</v>
+        <v>12341234</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12344444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33333.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>787878.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8799.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>676767.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>232323.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.131231231E9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.34687687E8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9999999.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>565656.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2341.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7.6546456E7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4235345.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.3423634E7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>324234.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>324234.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>324234.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>324234.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>324234.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>324234.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/studentId.xlsx
+++ b/src/main/resources/static/studentId.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchangmin/Desktop/rental-inhaee/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E12AD-99BD-6341-990B-593CD17E7444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C849D-F983-5B44-9629-1817AA3B826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28300" yWindow="2620" windowWidth="10000" windowHeight="17020" xr2:uid="{5558DE24-1404-8C4C-8334-9BFE201C07A8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>안창민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,75 +78,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일이삼사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>육육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chil</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>cbcb</t>
-  </si>
-  <si>
-    <t>123sds</t>
-  </si>
-  <si>
-    <t>dcdcdc</t>
-  </si>
-  <si>
-    <t>dtdtdt</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>546gyty</t>
-  </si>
-  <si>
-    <t>rrrr</t>
-  </si>
-  <si>
-    <t>43234</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>4444</t>
-  </si>
-  <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>232323</t>
+    <t>김준영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람3</t>
+  </si>
+  <si>
+    <t>사람4</t>
+  </si>
+  <si>
+    <t>사람5</t>
+  </si>
+  <si>
+    <t>사람6</t>
+  </si>
+  <si>
+    <t>사람7</t>
+  </si>
+  <si>
+    <t>사람8</t>
+  </si>
+  <si>
+    <t>사람9</t>
+  </si>
+  <si>
+    <t>사람10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -507,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F595DD0-4CC8-434B-86B2-9775FD789850}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -589,7 +560,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>12111111</v>
+        <v>12191459</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -597,194 +568,90 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>12341234</v>
+        <v>12191444</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>12344444</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>33333.0</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>787878.0</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>8799.0</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>676767.0</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>232323.0</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2.131231231E9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.34687687E8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>9999999.0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>565656.0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2341.0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>7.6546456E7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4235345.0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2.3423634E7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>324234.0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>324234.0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>324234.0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>324234.0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>324234.0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>324234.0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
